--- a/data/unchecked/manual_collect/china/anhui/anhuiCaseStatistics_20200308.xlsx
+++ b/data/unchecked/manual_collect/china/anhui/anhuiCaseStatistics_20200308.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\lab\疫情可视化\每日数据更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\anhui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38648CC6-A7EB-47E0-9C68-F2864545BC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B544E-6445-40AB-A6AE-A55387951087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="10" windowWidth="9560" windowHeight="10330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10967,51 +10967,51 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.921875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.07421875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.15234375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.07421875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="8.3828125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="9.4609375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="7.765625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.07421875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="7.4609375" style="13" customWidth="1"/>
-    <col min="14" max="16" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.61328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" style="13" customWidth="1"/>
+    <col min="14" max="16" width="12.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.6328125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.90625" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.61328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.07421875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.08984375" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.08984375" style="13" customWidth="1"/>
+    <col min="30" max="30" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.07421875" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.921875" style="13"/>
+    <col min="40" max="40" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.90625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="16.2">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" ht="16.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -11206,7 +11206,7 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" ht="16.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" ht="16.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" ht="16.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" ht="16.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" ht="16.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" ht="16.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" ht="16.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" ht="16.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" ht="16.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" ht="16.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" ht="16.2">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" ht="16.2">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" ht="16.2">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" ht="16.2">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" ht="16.2">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" ht="16.2">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -12098,10 +12098,10 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
